--- a/backend/reports/xlsx/Tab_2_rpt_CA_ActiveContractorList.xlsx
+++ b/backend/reports/xlsx/Tab_2_rpt_CA_ActiveContractorList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF88463-F804-B54F-9BFE-C85CA09996B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBAE31-3534-D347-BA93-445F4041841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29940" windowHeight="18660" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>{#fy=d.fiscal_year}</t>
   </si>
   <si>
-    <t>Contractor Resource List (Active) as of {$date}</t>
-  </si>
-  <si>
     <t>Contractor Name</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>{#c1=d.report[i].contractors[i+1]}</t>
+  </si>
+  <si>
+    <t>Active Contractor Resource List</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -760,7 +760,7 @@
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -769,28 +769,28 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="33" thickBot="1">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="20" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -801,30 +801,30 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="20" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="20" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19"/>
@@ -835,7 +835,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -861,12 +861,12 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">

--- a/backend/reports/xlsx/Tab_2_rpt_CA_ActiveContractorList.xlsx
+++ b/backend/reports/xlsx/Tab_2_rpt_CA_ActiveContractorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBAE31-3534-D347-BA93-445F4041841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7D9ACF-B757-4C47-B238-E2D8849C7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29940" windowHeight="18660" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="-4860" yWindow="-17020" windowWidth="29940" windowHeight="18660" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>{$r.portfolio_name}</t>
   </si>
   <si>
-    <t>{$r1}</t>
-  </si>
-  <si>
-    <t>{#c=d.report[i].contractors[i]}</t>
-  </si>
-  <si>
     <t>{$c.resource_first_name}</t>
   </si>
   <si>
@@ -105,10 +99,16 @@
     <t>{$c1}</t>
   </si>
   <si>
-    <t>{#c1=d.report[i].contractors[i+1]}</t>
-  </si>
-  <si>
     <t>Active Contractor Resource List</t>
+  </si>
+  <si>
+    <t>{#c=d.report[i].projects[i]}</t>
+  </si>
+  <si>
+    <t>{#c1=d.report[i].projects[i+1]}</t>
+  </si>
+  <si>
+    <t>{$r1.portfolio_name}</t>
   </si>
 </sst>
 </file>
@@ -140,11 +140,6 @@
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="BCSans-Regular"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="BCSans-Regular"/>
@@ -152,6 +147,11 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="BCSans-Regular"/>
     </font>
   </fonts>
@@ -240,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
@@ -290,13 +277,22 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
@@ -306,61 +302,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,7 +384,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1014614</xdr:colOff>
+      <xdr:colOff>1131845</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>680356</xdr:rowOff>
     </xdr:to>
@@ -744,148 +731,146 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="33" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="35" thickBot="1">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="20" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="20" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="20" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="13" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
